--- a/AP_test_plan.xlsx
+++ b/AP_test_plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://masseyhighschoolnz-my.sharepoint.com/personal/lyh71709_masseyhigh_school_nz/Documents/Old School Files/Documents/COM_201/01_Programming/AS_Area_Perimeter/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="8_{4B7E2B69-9BDF-4EF4-B582-36594C530D93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{83973416-B69D-4DBA-AF61-6C7C897754E0}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="8_{4B7E2B69-9BDF-4EF4-B582-36594C530D93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{71A35082-4E9B-42CC-83E9-AB4E07FDFB6D}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E22983AB-740C-424A-8F3E-307876149673}"/>
   </bookViews>
@@ -427,10 +427,13 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="10" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">

--- a/AP_test_plan.xlsx
+++ b/AP_test_plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://masseyhighschoolnz-my.sharepoint.com/personal/lyh71709_masseyhigh_school_nz/Documents/Old School Files/Documents/COM_201/01_Programming/AS_Area_Perimeter/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="19" documentId="8_{4B7E2B69-9BDF-4EF4-B582-36594C530D93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{71A35082-4E9B-42CC-83E9-AB4E07FDFB6D}"/>
+  <xr:revisionPtr revIDLastSave="37" documentId="8_{4B7E2B69-9BDF-4EF4-B582-36594C530D93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C623E67C-B01A-46A4-958F-25636CFEE3D4}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E22983AB-740C-424A-8F3E-307876149673}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="16">
   <si>
     <t>Shape</t>
   </si>
@@ -73,6 +73,15 @@
   </si>
   <si>
     <t>rectangle</t>
+  </si>
+  <si>
+    <t>circle</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>d</t>
   </si>
 </sst>
 </file>
@@ -424,10 +433,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F8FCFF6-47A1-4AD7-9C5F-B068DB8B03CB}">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -571,7 +580,50 @@
         <v>20</v>
       </c>
     </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10">
+        <v>5.4</v>
+      </c>
+      <c r="E10">
+        <v>33.92</v>
+      </c>
+      <c r="F10">
+        <v>91.6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11">
+        <v>7</v>
+      </c>
+      <c r="E11">
+        <v>21.99</v>
+      </c>
+      <c r="F11">
+        <v>38.479999999999997</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/AP_test_plan.xlsx
+++ b/AP_test_plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://masseyhighschoolnz-my.sharepoint.com/personal/lyh71709_masseyhigh_school_nz/Documents/Old School Files/Documents/COM_201/01_Programming/AS_Area_Perimeter/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="37" documentId="8_{4B7E2B69-9BDF-4EF4-B582-36594C530D93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C623E67C-B01A-46A4-958F-25636CFEE3D4}"/>
+  <xr:revisionPtr revIDLastSave="70" documentId="8_{4B7E2B69-9BDF-4EF4-B582-36594C530D93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{25476509-F776-44C3-A99E-2AEAAAA46CA7}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E22983AB-740C-424A-8F3E-307876149673}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="20">
   <si>
     <t>Shape</t>
   </si>
@@ -82,6 +82,18 @@
   </si>
   <si>
     <t>d</t>
+  </si>
+  <si>
+    <t>parallelogram</t>
+  </si>
+  <si>
+    <t>side</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Area </t>
+  </si>
+  <si>
+    <t>N/A</t>
   </si>
 </sst>
 </file>
@@ -433,15 +445,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F8FCFF6-47A1-4AD7-9C5F-B068DB8B03CB}">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
     <col min="5" max="5" width="10" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -622,6 +636,83 @@
         <v>38.479999999999997</v>
       </c>
     </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14">
+        <v>5</v>
+      </c>
+      <c r="C14">
+        <v>4</v>
+      </c>
+      <c r="D14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>14</v>
+      </c>
+      <c r="G15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16">
+        <v>4</v>
+      </c>
+      <c r="D16">
+        <v>5</v>
+      </c>
+      <c r="F16">
+        <v>16</v>
+      </c>
+      <c r="G16">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/AP_test_plan.xlsx
+++ b/AP_test_plan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://masseyhighschoolnz-my.sharepoint.com/personal/lyh71709_masseyhigh_school_nz/Documents/Old School Files/Documents/COM_201/01_Programming/AS_Area_Perimeter/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="70" documentId="8_{4B7E2B69-9BDF-4EF4-B582-36594C530D93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{25476509-F776-44C3-A99E-2AEAAAA46CA7}"/>
+  <xr:revisionPtr revIDLastSave="106" documentId="8_{4B7E2B69-9BDF-4EF4-B582-36594C530D93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1F14F159-5041-4C2D-B977-F3EE4EE46C1C}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E22983AB-740C-424A-8F3E-307876149673}"/>
+    <workbookView xWindow="2925" yWindow="2235" windowWidth="21600" windowHeight="11385" xr2:uid="{E22983AB-740C-424A-8F3E-307876149673}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="21">
   <si>
     <t>Shape</t>
   </si>
@@ -94,6 +94,9 @@
   </si>
   <si>
     <t>N/A</t>
+  </si>
+  <si>
+    <t>trapezium</t>
   </si>
 </sst>
 </file>
@@ -445,10 +448,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F8FCFF6-47A1-4AD7-9C5F-B068DB8B03CB}">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -456,6 +459,7 @@
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
     <col min="5" max="5" width="10" customWidth="1"/>
     <col min="6" max="6" width="9.85546875" customWidth="1"/>
+    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -713,6 +717,107 @@
         <v>12</v>
       </c>
     </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" t="s">
+        <v>5</v>
+      </c>
+      <c r="H18" t="s">
+        <v>7</v>
+      </c>
+      <c r="I18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <v>4</v>
+      </c>
+      <c r="D19" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" t="s">
+        <v>19</v>
+      </c>
+      <c r="F19">
+        <v>4</v>
+      </c>
+      <c r="H19" t="s">
+        <v>19</v>
+      </c>
+      <c r="I19">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="C20">
+        <v>4</v>
+      </c>
+      <c r="D20">
+        <v>5</v>
+      </c>
+      <c r="E20">
+        <v>6</v>
+      </c>
+      <c r="F20" t="s">
+        <v>19</v>
+      </c>
+      <c r="H20">
+        <v>18</v>
+      </c>
+      <c r="I20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>9</v>
+      </c>
+      <c r="C21">
+        <v>7</v>
+      </c>
+      <c r="D21">
+        <v>5</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>24</v>
+      </c>
+      <c r="I21">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/AP_test_plan.xlsx
+++ b/AP_test_plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://masseyhighschoolnz-my.sharepoint.com/personal/lyh71709_masseyhigh_school_nz/Documents/Old School Files/Documents/COM_201/01_Programming/AS_Area_Perimeter/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="106" documentId="8_{4B7E2B69-9BDF-4EF4-B582-36594C530D93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1F14F159-5041-4C2D-B977-F3EE4EE46C1C}"/>
+  <xr:revisionPtr revIDLastSave="124" documentId="8_{4B7E2B69-9BDF-4EF4-B582-36594C530D93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00CFDBA7-9133-43E0-B750-EF33350456F4}"/>
   <bookViews>
     <workbookView xWindow="2925" yWindow="2235" windowWidth="21600" windowHeight="11385" xr2:uid="{E22983AB-740C-424A-8F3E-307876149673}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="21">
   <si>
     <t>Shape</t>
   </si>
@@ -448,10 +448,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F8FCFF6-47A1-4AD7-9C5F-B068DB8B03CB}">
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -818,6 +818,90 @@
         <v>8</v>
       </c>
     </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" t="s">
+        <v>2</v>
+      </c>
+      <c r="C24" t="s">
+        <v>3</v>
+      </c>
+      <c r="D24" t="s">
+        <v>4</v>
+      </c>
+      <c r="F24" t="s">
+        <v>3</v>
+      </c>
+      <c r="G24" t="s">
+        <v>5</v>
+      </c>
+      <c r="H24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I24" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25">
+        <v>3</v>
+      </c>
+      <c r="C25">
+        <v>4</v>
+      </c>
+      <c r="D25">
+        <v>5</v>
+      </c>
+      <c r="F25" t="s">
+        <v>6</v>
+      </c>
+      <c r="G25" t="s">
+        <v>6</v>
+      </c>
+      <c r="H25">
+        <f>B25+C25+D25</f>
+        <v>12</v>
+      </c>
+      <c r="I25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" t="s">
+        <v>5</v>
+      </c>
+      <c r="E27" t="s">
+        <v>7</v>
+      </c>
+      <c r="F27" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="C28">
+        <v>3</v>
+      </c>
+      <c r="E28">
+        <v>12</v>
+      </c>
+      <c r="F28">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/AP_test_plan.xlsx
+++ b/AP_test_plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://masseyhighschoolnz-my.sharepoint.com/personal/lyh71709_masseyhigh_school_nz/Documents/Old School Files/Documents/COM_201/01_Programming/AS_Area_Perimeter/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="124" documentId="8_{4B7E2B69-9BDF-4EF4-B582-36594C530D93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00CFDBA7-9133-43E0-B750-EF33350456F4}"/>
+  <xr:revisionPtr revIDLastSave="130" documentId="8_{4B7E2B69-9BDF-4EF4-B582-36594C530D93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DC8B507C-A634-46CF-800A-7E4A4D7D16CD}"/>
   <bookViews>
     <workbookView xWindow="2925" yWindow="2235" windowWidth="21600" windowHeight="11385" xr2:uid="{E22983AB-740C-424A-8F3E-307876149673}"/>
   </bookViews>
@@ -450,8 +450,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F8FCFF6-47A1-4AD7-9C5F-B068DB8B03CB}">
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
